--- a/Predictions/Week 2/Week 2.xlsx
+++ b/Predictions/Week 2/Week 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF64BB-7776-4EE3-88F8-5D62382C8C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F9C4FC-912D-4A52-8B5E-AC8713080F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -260,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +599,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +687,7 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -691,7 +699,7 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -711,7 +719,7 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -725,7 +733,7 @@
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -737,7 +745,7 @@
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -751,13 +759,13 @@
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -780,7 +788,7 @@
       <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -817,19 +825,19 @@
       <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -898,7 +906,7 @@
       <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -932,16 +940,16 @@
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -981,13 +989,13 @@
       <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="9" t="s">
